--- a/Code/GenModel/test/test.xlsx
+++ b/Code/GenModel/test/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenModel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE3090B-6D12-4AD0-97B7-58E2F9845328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C7F0A9-FF26-40C4-BC1A-09E33FA3C32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>INCA monitoring name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,72 +135,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>inf_eng_trq_tcm_rqst_fail_stat</t>
+  </si>
+  <si>
+    <t>inf_trq_crnk_shft</t>
+  </si>
+  <si>
+    <t>inf_aps_pos_pt_validity</t>
+  </si>
+  <si>
+    <t>inf_tra_non_reg</t>
+  </si>
+  <si>
+    <t>inf_aps_pos_eff</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanTx_inf_eng_tra_rdctn_fail_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanTx_inf_eng_trq_tcm_rqst_fail_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanTx_inf_trq_crnk_shft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanTx_inf_aps_pos_pt_validity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanTx_inf_tra_non_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanTx_inf_aps_pos_eff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>inf_eng_tra_rdctn_fail_stat</t>
-  </si>
-  <si>
-    <t>inf_eng_trq_tcm_rqst_fail_stat</t>
-  </si>
-  <si>
-    <t>inf_trq_crnk_shft</t>
-  </si>
-  <si>
-    <t>inf_aps_pos_pt_validity</t>
-  </si>
-  <si>
-    <t>inf_tra_non_reg</t>
-  </si>
-  <si>
-    <t>inf_aps_pos_eff</t>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanTx_inf_eng_tra_rdctn_fail_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanTx_inf_eng_trq_tcm_rqst_fail_stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanTx_inf_trq_crnk_shft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanTx_inf_aps_pos_pt_validity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanTx_inf_tra_non_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanTx_inf_aps_pos_eff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanTx_Err_inf_eng_tra_rdctn_fail_stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -255,11 +260,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -269,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D15" sqref="D15:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,22 +713,22 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -723,22 +742,22 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -752,22 +771,22 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -781,22 +800,22 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -810,22 +829,22 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -839,22 +858,22 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>0.39215686274509798</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8">
         <v>255</v>
@@ -868,22 +887,22 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -897,22 +916,22 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -926,22 +945,22 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -955,22 +974,22 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -984,22 +1003,22 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -1013,22 +1032,22 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>43</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1037,6 +1056,35 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
         <v>100</v>
       </c>
     </row>
